--- a/documents/ecrans-composants.xlsx
+++ b/documents/ecrans-composants.xlsx
@@ -844,6 +844,6 @@
     <mergeCell ref="G4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>